--- a/biology/Zoologie/Conus_alfi/Conus_alfi.xlsx
+++ b/biology/Zoologie/Conus_alfi/Conus_alfi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus alfi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de la coquille atteint 52 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine d'escargot conique est endémique de la mer de Chine méridionale vietnamienne.
 </t>
@@ -576,12 +592,86 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus alfi a été décrite pour la première fois en 2016 par le malacologiste vietnamien Nguyen Ngoc Thach (d)[1].
-Synonymes
-Vituliconus alfi Thach, 2016 · non accepté (combinaison originale)
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus alfi dans les principales bases sont les suivants :
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus alfi a été décrite pour la première fois en 2016 par le malacologiste vietnamien Nguyen Ngoc Thach (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_alfi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_alfi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vituliconus alfi Thach, 2016 · non accepté (combinaison originale)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_alfi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_alfi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus alfi dans les principales bases sont les suivants :
 CoL : XWV9 - GBIF : 8882933 - 
 </t>
         </is>
